--- a/InputData/indst/RIFF/Recipient Industrial Fuel Fractions.xlsx
+++ b/InputData/indst/RIFF/Recipient Industrial Fuel Fractions.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="108" windowWidth="21072" windowHeight="11052"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="21075" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="RIFF" sheetId="3" r:id="rId2"/>
+    <sheet name="RIFF-coal" sheetId="3" r:id="rId2"/>
+    <sheet name="RIFF-natural-gas" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Source:</t>
   </si>
@@ -26,9 +27,6 @@
     <t>Reinventing Fire</t>
   </si>
   <si>
-    <t>RIFF Recipient Industrial Fuel Fractions</t>
-  </si>
-  <si>
     <t>http://www.rmi.org/RFGraph-Fuel_switching_options_industry</t>
   </si>
   <si>
@@ -68,28 +66,16 @@
     <t>We do not model combustible waste fuels, so we assume coal is shifted to gas.</t>
   </si>
   <si>
-    <t>If adapting the model to another country or region, be careful about shifting to electricity,</t>
-  </si>
-  <si>
-    <t>because energy is shifted on a BTU (energy unit) basis without efficiency adjustment.</t>
-  </si>
-  <si>
-    <t>While efficiency of converting BTUs of fuel into usable work varies from fuel to fuel and</t>
-  </si>
-  <si>
-    <t>equipment to equipment (and we don't typically model these differences), they might be</t>
-  </si>
-  <si>
-    <t>large enough to model in the case of electricity.  Electricity is used more efficiently per</t>
-  </si>
-  <si>
-    <t>energy unit than the chemical energy within thermal fuels, so an efficiency adjustment</t>
-  </si>
-  <si>
-    <t>might need to be added to the Vensim model if electricity is to be a valid recipient fuel</t>
-  </si>
-  <si>
-    <t>source.  (We already do this in the Transportation sector for electrification of vehicles.)</t>
+    <t>The model also has the capability to shift natural gas to other fuel types.  The fuel type that</t>
+  </si>
+  <si>
+    <t>makes the most sense in this case is electricity.</t>
+  </si>
+  <si>
+    <t>RIFF Recipient Industrial Fuel Fractions for Coal</t>
+  </si>
+  <si>
+    <t>RIFF Recipient Industrial Fuel Fractions for Natural Gas</t>
   </si>
 </sst>
 </file>
@@ -455,106 +441,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="80.33203125" customWidth="1"/>
+    <col min="2" max="2" width="80.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
+      <c r="A9" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -572,20 +533,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -593,7 +554,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -601,7 +562,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -609,7 +570,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -617,7 +578,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -625,7 +586,80 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
